--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -143,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +163,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,7 +2115,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2860,6 +2863,83 @@
       </c>
       <c r="C68" s="5">
         <v>2094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1294</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1344</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B71" s="5">
+        <v>366</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B72" s="5">
+        <v>348</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1759</v>
+      </c>
+      <c r="C73">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1269</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1159</v>
+      </c>
+      <c r="C75" s="7">
+        <v>2343</v>
       </c>
     </row>
   </sheetData>
